--- a/docs/charset.xlsx
+++ b/docs/charset.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -478,7 +478,7 @@
   <dimension ref="B10:AH128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="Z84" sqref="Z84"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,19 +3654,23 @@
     <row r="91" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
       <c r="E91" s="1"/>
       <c r="F91">
         <f t="shared" ref="F91:F98" si="0">E91+2*D91+4*C91+8*B91</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="J91" s="1">
+        <v>1</v>
+      </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91">
         <f t="shared" ref="M91:M98" si="1">L91+2*K91+4*J91+8*I91</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -3695,20 +3699,26 @@
     </row>
     <row r="92" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
+      <c r="J92" s="1">
+        <v>1</v>
+      </c>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -3720,11 +3730,13 @@
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
+      <c r="Y92" s="1">
+        <v>1</v>
+      </c>
       <c r="Z92" s="1"/>
       <c r="AA92">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD92" s="1"/>
       <c r="AE92" s="1"/>
@@ -3737,36 +3749,56 @@
     </row>
     <row r="93" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1">
+        <v>1</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
       <c r="L93" s="1"/>
       <c r="M93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
+      <c r="Q93" s="1">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1</v>
+      </c>
       <c r="T93">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W93" s="1"/>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="1"/>
-      <c r="Z93" s="1"/>
+      <c r="X93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>1</v>
+      </c>
       <c r="AA93">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AD93" s="1"/>
       <c r="AE93" s="1"/>
@@ -3779,36 +3811,52 @@
     </row>
     <row r="94" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>1</v>
+      </c>
       <c r="E94" s="1"/>
       <c r="F94">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
+      <c r="J94" s="1">
+        <v>1</v>
+      </c>
       <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="L94" s="1">
+        <v>1</v>
+      </c>
       <c r="M94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P94" s="1"/>
-      <c r="Q94" s="1"/>
-      <c r="R94" s="1"/>
-      <c r="S94" s="1"/>
+      <c r="Q94" s="1">
+        <v>1</v>
+      </c>
+      <c r="R94" s="1">
+        <v>1</v>
+      </c>
+      <c r="S94" s="1">
+        <v>1</v>
+      </c>
       <c r="T94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1"/>
+      <c r="Y94" s="1">
+        <v>1</v>
+      </c>
       <c r="Z94" s="1"/>
       <c r="AA94">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD94" s="1"/>
       <c r="AE94" s="1"/>
@@ -3821,28 +3869,38 @@
     </row>
     <row r="95" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
+      <c r="J95" s="1">
+        <v>1</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
       <c r="L95" s="1"/>
       <c r="M95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P95" s="1"/>
-      <c r="Q95" s="1"/>
+      <c r="Q95" s="1">
+        <v>1</v>
+      </c>
       <c r="R95" s="1"/>
-      <c r="S95" s="1"/>
+      <c r="S95" s="1">
+        <v>1</v>
+      </c>
       <c r="T95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
@@ -3990,11 +4048,13 @@
     <row r="101" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="D101" s="1">
+        <v>1</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101">
         <f t="shared" ref="F101:F108" si="5">E101+2*D101+4*C101+8*B101</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -4031,12 +4091,16 @@
     </row>
     <row r="102" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1">
+        <v>1</v>
+      </c>
       <c r="F102">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -4074,11 +4138,13 @@
     <row r="103" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
       <c r="E103" s="1"/>
       <c r="F103">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4166,11 +4232,13 @@
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
       <c r="L105" s="1"/>
       <c r="M105">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>

--- a/docs/charset.xlsx
+++ b/docs/charset.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="11520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -158,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:AH128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A119" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -5066,4 +5068,802 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J3:BA21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:AG12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="60" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>128</v>
+      </c>
+      <c r="K3">
+        <v>64</v>
+      </c>
+      <c r="L3">
+        <v>32</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>128</v>
+      </c>
+      <c r="S3">
+        <v>64</v>
+      </c>
+      <c r="T3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>4</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>128</v>
+      </c>
+      <c r="AA3">
+        <v>64</v>
+      </c>
+      <c r="AB3">
+        <v>32</v>
+      </c>
+      <c r="AC3">
+        <v>16</v>
+      </c>
+      <c r="AD3">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>2</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="AK14">
+        <f>SUM(AK5:AR5)</f>
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <f>SUM(AS5:AZ5)</f>
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <f>SUM(BA5:BH5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="AK15">
+        <f t="shared" ref="AK15:AK21" si="0">SUM(AK6:AR6)</f>
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" ref="AS15:AS21" si="1">SUM(AS6:AZ6)</f>
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" ref="BA15:BA21" si="2">SUM(BA6:BH6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="10:53" x14ac:dyDescent="0.25">
+      <c r="AK16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="37:53" x14ac:dyDescent="0.25">
+      <c r="AK17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="37:53" x14ac:dyDescent="0.25">
+      <c r="AK18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="37:53" x14ac:dyDescent="0.25">
+      <c r="AK19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="37:53" x14ac:dyDescent="0.25">
+      <c r="AK20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="37:53" x14ac:dyDescent="0.25">
+      <c r="AK21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>